--- a/biology/Botanique/Freedom_(rose)/Freedom_(rose).xlsx
+++ b/biology/Botanique/Freedom_(rose)/Freedom_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽFreedom’[1] (syn.: ʽDICjem’) est un cultivar de rosier mis au marché en 1984 par l'obtenteur nord-irlandais Colin Dickson. Il est issu du croisement (ʽEurorose’ × ʽTaifun‘) × ʽBright Smile’.
+ʽFreedom’ (syn.: ʽDICjem’) est un cultivar de rosier mis au marché en 1984 par l'obtenteur nord-irlandais Colin Dickson. Il est issu du croisement (ʽEurorose’ × ʽTaifun‘) × ʽBright Smile’.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d un hybride de thé de forme classique dont les fleurs arborent une splendide couleur jaune. Elles mesurent 9 cm de grosseur et ne sont pas très parfumées. Cette variété se plaît dans les zones bien arrosées[2]. Son buisson s'élève à 80 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d un hybride de thé de forme classique dont les fleurs arborent une splendide couleur jaune. Elles mesurent 9 cm de grosseur et ne sont pas très parfumées. Cette variété se plaît dans les zones bien arrosées. Son buisson s'élève à 80 cm.
 Le style de sélection auquel ʽFreedom’ se rattache avec de longs pétales, des boutons élégants, des fleurs épanouies pas trop denses sur des tiges fortes a été cultivé dans la tradition de Henry Bennett depuis six générations par la famille des rosiéristes Dickson et est devenu un modèle d'hybride de thé.
 On compte dans cette tradition depuis la fin du XIXe siècle des cultivars fameux comme 
 ʽMrs W. J. Grant’ (1892), ʽLiberty’ (1902) et ʽGeorge Dickson’ (1912). Plus récemment, la maison Dickson a créé de grands succès de couleur jaune, comme ʽElina’ (1983), rose favorite du monde en 2006, ʽTequila Sunrise’ (1988), ʽGypsy Dancer’ (1994) dans cette lignée.
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>RHRS médaille d'or 1983
 La Haye médaille d'or 1992
